--- a/coin_balance.xlsx
+++ b/coin_balance.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2024-10-16 14:03:23</t>
+          <t>2024-10-16 16:03:32</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -727,9 +727,19 @@
           <t>2024-10-16 15:59:14</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>com.plato.androib</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:05:13</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -866,9 +876,19 @@
           <t>2024-10-16 15:37:19</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>com.plato.android</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:03:25</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -932,9 +952,19 @@
           <t>2024-10-16 15:38:19</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>com.plato.androie</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:05:13</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -3411,7 +3441,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2024-10-16 09:27:38</t>
+          <t>2024-10-16 16:03:06</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3477,7 +3507,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2024-10-16 09:28:30</t>
+          <t>2024-10-16 16:04:06</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3543,7 +3573,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2024-10-16 09:29:26</t>
+          <t>2024-10-16 16:05:02</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3767,7 +3797,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2024-10-16 10:56:51</t>
+          <t>2024-10-16 16:02:56</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -3833,7 +3863,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-10-16 10:57:44</t>
+          <t>2024-10-16 16:03:15</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -3899,7 +3929,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2024-10-16 10:58:00</t>
+          <t>2024-10-16 16:03:34</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -3965,7 +3995,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2024-10-16 10:59:00</t>
+          <t>2024-10-16 16:04:28</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>

--- a/coin_balance.xlsx
+++ b/coin_balance.xlsx
@@ -4061,7 +4061,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2024-10-16 10:59:57</t>
+          <t>2024-10-16 16:05:34</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>

--- a/coin_balance.xlsx
+++ b/coin_balance.xlsx
@@ -813,9 +813,19 @@
           <t>2024-10-16 16:01:19</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>com.plato.androic</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:07:36</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -1028,9 +1038,19 @@
           <t>2024-10-16 15:38:38</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>com.plato.androif</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>150</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:07:24</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -4127,7 +4147,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2024-10-16 11:00:54</t>
+          <t>2024-10-16 16:06:27</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -4193,7 +4213,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2024-10-16 11:01:51</t>
+          <t>2024-10-16 16:07:21</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>

--- a/coin_balance.xlsx
+++ b/coin_balance.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-16 15:26:17</t>
+          <t>2024-10-16 16:12:56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-10-16 15:26:37</t>
+          <t>2024-10-16 16:13:08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-10-16 15:27:41</t>
+          <t>2024-10-16 16:14:14</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-10-16 15:27:04</t>
+          <t>2024-10-16 16:13:41</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-16 15:26:46</t>
+          <t>2024-10-16 16:13:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-10-16 15:27:10</t>
+          <t>2024-10-16 16:13:43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-10-16 15:28:04</t>
+          <t>2024-10-16 16:14:39</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-10-16 15:36:03</t>
+          <t>2024-10-16 16:14:57</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-16 15:27:17</t>
+          <t>2024-10-16 16:14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-10-16 15:27:39</t>
+          <t>2024-10-16 16:14:08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-10-16 15:28:26</t>
+          <t>2024-10-16 16:14:59</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-10-16 15:36:23</t>
+          <t>2024-10-16 16:15:16</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-10-16 15:28:24</t>
+          <t>2024-10-16 16:14:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -853,11 +853,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-10-16 15:28:48</t>
+          <t>2024-10-16 16:14:35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-10-16 15:29:27</t>
+          <t>2024-10-16 16:16:03</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -879,11 +879,11 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-10-16 15:37:19</t>
+          <t>2024-10-16 16:15:36</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -899,9 +899,19 @@
           <t>2024-10-16 16:03:25</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>com.plato.android</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:09:22</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -920,7 +930,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-16 15:29:23</t>
+          <t>2024-10-16 16:16:03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -933,7 +943,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-10-16 15:29:04</t>
+          <t>2024-10-16 16:14:53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -946,7 +956,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-10-16 15:29:44</t>
+          <t>2024-10-16 16:16:21</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -959,7 +969,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-10-16 15:38:19</t>
+          <t>2024-10-16 16:16:46</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -996,7 +1006,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-10-16 15:29:40</t>
+          <t>2024-10-16 16:16:20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1009,7 +1019,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-10-16 15:29:22</t>
+          <t>2024-10-16 16:15:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1018,11 +1028,11 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-10-16 15:30:39</t>
+          <t>2024-10-16 16:16:41</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1035,7 +1045,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2024-10-16 15:38:38</t>
+          <t>2024-10-16 16:17:05</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1072,7 +1082,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-10-16 15:29:58</t>
+          <t>2024-10-16 16:16:38</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1085,7 +1095,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-10-16 15:29:40</t>
+          <t>2024-10-16 16:15:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1098,7 +1108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-10-16 15:30:54</t>
+          <t>2024-10-16 16:16:58</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1111,12 +1121,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-10-16 15:38:54</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+          <t>2024-10-16 16:17:23</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>com.plato.androig</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:09:01</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1138,7 +1158,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-10-16 15:30:15</t>
+          <t>2024-10-16 16:16:54</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1151,7 +1171,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-10-16 15:35:50</t>
+          <t>2024-10-16 16:15:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1160,11 +1180,11 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-10-16 15:31:47</t>
+          <t>2024-10-16 16:17:16</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1177,12 +1197,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-10-16 15:39:12</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+          <t>2024-10-16 16:17:41</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>com.plato.androih</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:10:31</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1204,7 +1234,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-10-16 15:31:10</t>
+          <t>2024-10-16 16:17:54</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1217,7 +1247,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-10-16 15:36:09</t>
+          <t>2024-10-16 16:16:03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1230,7 +1260,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-10-16 15:32:03</t>
+          <t>2024-10-16 16:17:33</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1239,16 +1269,26 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-10-16 15:40:06</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+          <t>2024-10-16 16:18:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>com.plato.androii</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:11:37</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1270,7 +1310,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-10-16 15:32:05</t>
+          <t>2024-10-16 16:18:12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1283,7 +1323,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-10-16 15:36:27</t>
+          <t>2024-10-16 16:16:21</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1296,7 +1336,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-10-16 15:32:20</t>
+          <t>2024-10-16 16:17:50</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1309,7 +1349,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-10-16 15:40:24</t>
+          <t>2024-10-16 16:18:18</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -1336,7 +1376,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-10-16 15:32:21</t>
+          <t>2024-10-16 16:18:31</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1349,7 +1389,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-10-16 15:36:47</t>
+          <t>2024-10-16 16:16:38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1358,11 +1398,11 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-10-16 15:33:12</t>
+          <t>2024-10-16 16:18:09</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1375,7 +1415,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-10-16 15:40:41</t>
+          <t>2024-10-16 16:18:36</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1398,11 +1438,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-10-16 15:33:17</t>
+          <t>2024-10-16 16:21:24</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1411,11 +1451,11 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-10-16 15:37:47</t>
+          <t>2024-10-16 16:16:57</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1428,7 +1468,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-10-16 15:33:28</t>
+          <t>2024-10-16 16:18:26</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1437,11 +1477,11 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-10-16 15:41:37</t>
+          <t>2024-10-16 16:18:54</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1464,11 +1504,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-10-16 15:34:07</t>
+          <t>2024-10-16 16:21:44</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1481,7 +1521,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-10-16 15:38:05</t>
+          <t>2024-10-16 16:17:16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1494,7 +1534,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-10-16 15:34:21</t>
+          <t>2024-10-16 16:18:45</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1507,7 +1547,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-10-16 15:41:56</t>
+          <t>2024-10-16 16:19:10</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1534,7 +1574,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-10-16 15:34:23</t>
+          <t>2024-10-16 16:22:02</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1547,7 +1587,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-10-16 15:39:06</t>
+          <t>2024-10-16 16:18:14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1560,7 +1600,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-10-16 15:34:37</t>
+          <t>2024-10-16 16:19:02</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1573,7 +1613,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-10-16 15:42:55</t>
+          <t>2024-10-16 16:20:04</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1600,7 +1640,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-10-16 15:35:21</t>
+          <t>2024-10-16 16:22:58</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1613,7 +1653,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-10-16 15:40:01</t>
+          <t>2024-10-16 16:18:33</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1626,7 +1666,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-10-16 15:34:53</t>
+          <t>2024-10-16 16:19:19</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1639,7 +1679,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-10-16 15:43:11</t>
+          <t>2024-10-16 16:20:23</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1666,7 +1706,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-10-16 15:36:35</t>
+          <t>2024-10-16 16:24:05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1679,7 +1719,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-10-16 15:40:21</t>
+          <t>2024-10-16 16:18:51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1692,7 +1732,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-10-16 15:35:10</t>
+          <t>2024-10-16 16:19:36</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1705,7 +1745,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-10-16 15:43:29</t>
+          <t>2024-10-16 16:20:42</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
@@ -1732,7 +1772,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-10-16 15:36:54</t>
+          <t>2024-10-16 16:24:22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1745,7 +1785,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-10-16 15:41:16</t>
+          <t>2024-10-16 16:19:08</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1758,7 +1798,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-10-16 15:35:25</t>
+          <t>2024-10-16 16:19:53</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1771,7 +1811,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-10-16 15:44:44</t>
+          <t>2024-10-16 16:21:54</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
@@ -1798,7 +1838,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-10-16 15:37:11</t>
+          <t>2024-10-16 16:24:40</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1811,7 +1851,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-10-16 15:41:32</t>
+          <t>2024-10-16 16:19:24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1824,7 +1864,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-10-16 15:35:42</t>
+          <t>2024-10-16 16:20:11</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1837,7 +1877,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-10-16 15:45:41</t>
+          <t>2024-10-16 16:22:48</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1864,7 +1904,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-10-16 15:37:30</t>
+          <t>2024-10-16 16:24:58</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1873,11 +1913,11 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-10-16 15:42:29</t>
+          <t>2024-10-16 16:19:42</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1890,7 +1930,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-10-16 15:35:58</t>
+          <t>2024-10-16 16:20:30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1903,7 +1943,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2024-10-16 15:45:59</t>
+          <t>2024-10-16 16:23:06</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1930,7 +1970,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-10-16 15:37:52</t>
+          <t>2024-10-16 16:25:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1939,11 +1979,11 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-10-16 15:43:25</t>
+          <t>2024-10-16 16:20:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1956,7 +1996,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-10-16 15:36:16</t>
+          <t>2024-10-16 16:20:48</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1969,7 +2009,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024-10-16 15:46:16</t>
+          <t>2024-10-16 16:23:24</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
@@ -1996,7 +2036,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-10-16 15:38:10</t>
+          <t>2024-10-16 16:25:35</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2009,7 +2049,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-10-16 15:43:43</t>
+          <t>2024-10-16 16:20:18</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2018,11 +2058,11 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-10-16 15:37:13</t>
+          <t>2024-10-16 16:21:08</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2035,7 +2075,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-10-16 15:46:33</t>
+          <t>2024-10-16 16:23:41</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -2062,7 +2102,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-10-16 15:38:30</t>
+          <t>2024-10-16 16:25:57</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2075,7 +2115,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-10-16 15:44:41</t>
+          <t>2024-10-16 16:20:37</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2088,7 +2128,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-10-16 15:37:31</t>
+          <t>2024-10-16 16:21:26</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2101,7 +2141,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-10-16 15:46:52</t>
+          <t>2024-10-16 16:23:59</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -2141,7 +2181,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-10-16 15:45:38</t>
+          <t>2024-10-16 16:21:36</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2154,7 +2194,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-10-16 15:37:50</t>
+          <t>2024-10-16 16:21:43</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2167,7 +2207,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-10-16 15:47:11</t>
+          <t>2024-10-16 16:24:15</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
@@ -2207,7 +2247,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-10-16 15:45:56</t>
+          <t>2024-10-16 16:21:53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2220,7 +2260,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-10-16 15:38:05</t>
+          <t>2024-10-16 16:22:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2233,7 +2273,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-10-16 15:47:29</t>
+          <t>2024-10-16 16:24:32</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -2273,7 +2313,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-10-16 15:46:55</t>
+          <t>2024-10-16 16:23:03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2286,7 +2326,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-10-16 15:38:24</t>
+          <t>2024-10-16 16:22:17</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2299,7 +2339,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-10-16 15:47:47</t>
+          <t>2024-10-16 16:24:49</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -2335,11 +2375,11 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-10-16 15:47:49</t>
+          <t>2024-10-16 16:24:02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2348,11 +2388,11 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-10-16 15:39:19</t>
+          <t>2024-10-16 16:22:41</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2361,11 +2401,11 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-10-16 15:48:45</t>
+          <t>2024-10-16 16:25:48</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -2401,11 +2441,11 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-10-16 15:48:49</t>
+          <t>2024-10-16 16:24:56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2418,7 +2458,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-10-16 15:39:37</t>
+          <t>2024-10-16 16:22:58</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2471,7 +2511,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-10-16 15:49:45</t>
+          <t>2024-10-16 16:25:56</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2484,7 +2524,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-10-16 15:39:56</t>
+          <t>2024-10-16 16:23:16</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2550,7 +2590,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-10-16 15:40:53</t>
+          <t>2024-10-16 16:23:32</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2616,7 +2656,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-10-16 15:41:50</t>
+          <t>2024-10-16 16:24:45</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2682,7 +2722,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-10-16 15:42:56</t>
+          <t>2024-10-16 16:25:46</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4279,7 +4319,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2024-10-16 11:02:47</t>
+          <t>2024-10-16 16:08:17</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -4345,7 +4385,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2024-10-16 11:03:39</t>
+          <t>2024-10-16 16:09:10</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -4411,7 +4451,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2024-10-16 11:04:33</t>
+          <t>2024-10-16 16:10:06</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -4477,7 +4517,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-10-16 11:05:28</t>
+          <t>2024-10-16 16:11:00</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -4543,7 +4583,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2024-10-16 11:05:42</t>
+          <t>2024-10-16 16:11:15</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -4609,7 +4649,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2024-10-16 11:05:59</t>
+          <t>2024-10-16 16:11:30</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
